--- a/Configs/FRTBConfig_SA-SARB.xlsx
+++ b/Configs/FRTBConfig_SA-SARB.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10905"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alan/Workspace/FRTB/Configs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C87E941D-3E6D-E244-91A6-F7313479ED92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87DD9CC4-1491-2C40-862B-62C5A96252AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11200" yWindow="500" windowWidth="40140" windowHeight="26960" xr2:uid="{702274BA-38C3-0147-8564-8B67C0FD49FC}"/>
   </bookViews>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="783" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="783" uniqueCount="286">
   <si>
     <t>Bucket</t>
   </si>
@@ -864,9 +864,6 @@
   </si>
   <si>
     <t>Copyright (C) 2024-2025 frtb.net limited</t>
-  </si>
-  <si>
-    <t>Buckets</t>
   </si>
   <si>
     <t>Description</t>
@@ -1424,7 +1421,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4D95B6A-2092-4D43-ABCB-456863E81D66}">
   <dimension ref="A1:A19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
@@ -1505,7 +1504,7 @@
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="14" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
   </sheetData>
@@ -1805,7 +1804,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>285</v>
+        <v>108</v>
       </c>
       <c r="D3" t="s">
         <v>237</v>
@@ -1816,7 +1815,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>285</v>
+        <v>108</v>
       </c>
       <c r="D4" t="s">
         <v>238</v>
@@ -1827,7 +1826,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>285</v>
+        <v>108</v>
       </c>
       <c r="D5" t="s">
         <v>239</v>
@@ -1838,7 +1837,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>285</v>
+        <v>108</v>
       </c>
       <c r="D6" t="s">
         <v>240</v>
@@ -1849,7 +1848,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>285</v>
+        <v>108</v>
       </c>
       <c r="D7" t="s">
         <v>241</v>
@@ -1860,7 +1859,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>285</v>
+        <v>108</v>
       </c>
       <c r="D8" t="s">
         <v>242</v>
@@ -1871,7 +1870,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>285</v>
+        <v>108</v>
       </c>
       <c r="D9" t="s">
         <v>243</v>
@@ -1882,10 +1881,10 @@
         <v>9</v>
       </c>
       <c r="C10" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D10" t="s">
         <v>285</v>
-      </c>
-      <c r="D10" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1893,7 +1892,7 @@
         <v>10</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>285</v>
+        <v>108</v>
       </c>
       <c r="D11" t="s">
         <v>244</v>
@@ -1904,7 +1903,7 @@
         <v>11</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>285</v>
+        <v>108</v>
       </c>
       <c r="D12" t="s">
         <v>245</v>
@@ -1915,7 +1914,7 @@
         <v>12</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>285</v>
+        <v>108</v>
       </c>
       <c r="D13" t="s">
         <v>246</v>
@@ -1926,7 +1925,7 @@
         <v>13</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D14" t="s">
         <v>237</v>
@@ -1937,7 +1936,7 @@
         <v>14</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D15" t="s">
         <v>238</v>
@@ -1948,7 +1947,7 @@
         <v>15</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D16" t="s">
         <v>239</v>
@@ -1959,7 +1958,7 @@
         <v>16</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D17" t="s">
         <v>240</v>
@@ -1970,7 +1969,7 @@
         <v>17</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D18" t="s">
         <v>241</v>
@@ -1981,7 +1980,7 @@
         <v>18</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D19" t="s">
         <v>242</v>
@@ -1992,7 +1991,7 @@
         <v>19</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D20" t="s">
         <v>243</v>
@@ -2003,10 +2002,10 @@
         <v>20</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D21" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="22" spans="2:4">
@@ -2014,7 +2013,7 @@
         <v>21</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D22" t="s">
         <v>244</v>
@@ -2025,7 +2024,7 @@
         <v>22</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D23" t="s">
         <v>245</v>
@@ -2036,7 +2035,7 @@
         <v>23</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D24" t="s">
         <v>246</v>
@@ -2047,7 +2046,7 @@
         <v>24</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D25" t="s">
         <v>237</v>
@@ -2058,7 +2057,7 @@
         <v>25</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D26" t="s">
         <v>238</v>
@@ -2069,7 +2068,7 @@
         <v>26</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D27" t="s">
         <v>239</v>
@@ -2080,7 +2079,7 @@
         <v>27</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D28" t="s">
         <v>240</v>
@@ -2091,7 +2090,7 @@
         <v>28</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D29" t="s">
         <v>241</v>
@@ -2102,7 +2101,7 @@
         <v>29</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D30" t="s">
         <v>242</v>
@@ -2113,7 +2112,7 @@
         <v>30</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D31" t="s">
         <v>243</v>
@@ -2124,10 +2123,10 @@
         <v>31</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D32" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="33" spans="2:4">
@@ -2135,7 +2134,7 @@
         <v>32</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D33" t="s">
         <v>244</v>
@@ -2146,7 +2145,7 @@
         <v>33</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D34" t="s">
         <v>245</v>
@@ -2157,7 +2156,7 @@
         <v>34</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D35" t="s">
         <v>246</v>
@@ -2168,7 +2167,7 @@
         <v>35</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>110</v>
+        <v>247</v>
       </c>
       <c r="D36" t="s">
         <v>237</v>
@@ -2179,7 +2178,7 @@
         <v>36</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>110</v>
+        <v>247</v>
       </c>
       <c r="D37" t="s">
         <v>238</v>
@@ -2190,7 +2189,7 @@
         <v>37</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>110</v>
+        <v>247</v>
       </c>
       <c r="D38" t="s">
         <v>239</v>
@@ -2201,7 +2200,7 @@
         <v>38</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>110</v>
+        <v>247</v>
       </c>
       <c r="D39" t="s">
         <v>240</v>
@@ -2212,7 +2211,7 @@
         <v>39</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>110</v>
+        <v>247</v>
       </c>
       <c r="D40" t="s">
         <v>241</v>
@@ -2223,7 +2222,7 @@
         <v>40</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>110</v>
+        <v>247</v>
       </c>
       <c r="D41" t="s">
         <v>242</v>
@@ -2234,7 +2233,7 @@
         <v>41</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>110</v>
+        <v>247</v>
       </c>
       <c r="D42" t="s">
         <v>243</v>
@@ -2245,10 +2244,10 @@
         <v>42</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>110</v>
+        <v>247</v>
       </c>
       <c r="D43" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="44" spans="2:4">
@@ -2256,7 +2255,7 @@
         <v>43</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>110</v>
+        <v>247</v>
       </c>
       <c r="D44" t="s">
         <v>244</v>
@@ -2267,7 +2266,7 @@
         <v>44</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>110</v>
+        <v>247</v>
       </c>
       <c r="D45" t="s">
         <v>245</v>
@@ -2278,7 +2277,7 @@
         <v>45</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>110</v>
+        <v>247</v>
       </c>
       <c r="D46" t="s">
         <v>246</v>
@@ -2289,10 +2288,10 @@
         <v>46</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="D47" t="s">
-        <v>237</v>
+        <v>235</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="48" spans="2:4">
@@ -2300,10 +2299,10 @@
         <v>47</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>247</v>
+        <v>284</v>
       </c>
       <c r="D48" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -2311,10 +2310,10 @@
         <v>48</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>247</v>
+        <v>284</v>
       </c>
       <c r="D49" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -2322,10 +2321,10 @@
         <v>49</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>247</v>
+        <v>284</v>
       </c>
       <c r="D50" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -2333,10 +2332,10 @@
         <v>50</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>247</v>
+        <v>284</v>
       </c>
       <c r="D51" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -2344,10 +2343,10 @@
         <v>51</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>247</v>
+        <v>284</v>
       </c>
       <c r="D52" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -2355,10 +2354,10 @@
         <v>52</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>247</v>
+        <v>284</v>
       </c>
       <c r="D53" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -2366,10 +2365,10 @@
         <v>53</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>247</v>
+        <v>284</v>
       </c>
       <c r="D54" t="s">
-        <v>286</v>
+        <v>243</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -2377,10 +2376,10 @@
         <v>54</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>247</v>
+        <v>284</v>
       </c>
       <c r="D55" t="s">
-        <v>244</v>
+        <v>285</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -2388,10 +2387,10 @@
         <v>55</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>247</v>
+        <v>284</v>
       </c>
       <c r="D56" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -2399,10 +2398,10 @@
         <v>56</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>247</v>
+        <v>284</v>
       </c>
       <c r="D57" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -2410,10 +2409,10 @@
         <v>57</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="D58" s="4" t="s">
-        <v>248</v>
+        <v>284</v>
+      </c>
+      <c r="D58" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -2515,7 +2514,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -2524,7 +2523,7 @@
         <v>189</v>
       </c>
       <c r="D1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2532,10 +2531,10 @@
         <v>197</v>
       </c>
       <c r="C2" s="13" t="s">
+        <v>251</v>
+      </c>
+      <c r="D2" s="13" t="s">
         <v>252</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2543,10 +2542,10 @@
         <v>197</v>
       </c>
       <c r="C3" s="13" t="s">
+        <v>253</v>
+      </c>
+      <c r="D3" s="13" t="s">
         <v>254</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2554,10 +2553,10 @@
         <v>197</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2565,10 +2564,10 @@
         <v>197</v>
       </c>
       <c r="C5" s="13" t="s">
+        <v>256</v>
+      </c>
+      <c r="D5" s="13" t="s">
         <v>257</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2576,10 +2575,10 @@
         <v>197</v>
       </c>
       <c r="C6" s="13" t="s">
+        <v>258</v>
+      </c>
+      <c r="D6" s="13" t="s">
         <v>259</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -2587,10 +2586,10 @@
         <v>198</v>
       </c>
       <c r="C7" s="13" t="s">
+        <v>260</v>
+      </c>
+      <c r="D7" s="13" t="s">
         <v>261</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2598,10 +2597,10 @@
         <v>198</v>
       </c>
       <c r="C8" s="13" t="s">
+        <v>262</v>
+      </c>
+      <c r="D8" s="13" t="s">
         <v>263</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2609,10 +2608,10 @@
         <v>198</v>
       </c>
       <c r="C9" s="13" t="s">
+        <v>264</v>
+      </c>
+      <c r="D9" s="13" t="s">
         <v>265</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2620,10 +2619,10 @@
         <v>198</v>
       </c>
       <c r="C10" s="13" t="s">
+        <v>266</v>
+      </c>
+      <c r="D10" s="13" t="s">
         <v>267</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -2631,10 +2630,10 @@
         <v>198</v>
       </c>
       <c r="C11" s="13" t="s">
+        <v>268</v>
+      </c>
+      <c r="D11" s="13" t="s">
         <v>269</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -2642,10 +2641,10 @@
         <v>198</v>
       </c>
       <c r="C12" s="13" t="s">
+        <v>270</v>
+      </c>
+      <c r="D12" s="13" t="s">
         <v>271</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2653,10 +2652,10 @@
         <v>198</v>
       </c>
       <c r="C13" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="D13" s="13" t="s">
         <v>273</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -2664,10 +2663,10 @@
         <v>198</v>
       </c>
       <c r="C14" s="13" t="s">
+        <v>274</v>
+      </c>
+      <c r="D14" s="13" t="s">
         <v>275</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -2675,10 +2674,10 @@
         <v>198</v>
       </c>
       <c r="C15" s="13" t="s">
+        <v>276</v>
+      </c>
+      <c r="D15" s="13" t="s">
         <v>277</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -2686,10 +2685,10 @@
         <v>198</v>
       </c>
       <c r="C16" s="13" t="s">
+        <v>278</v>
+      </c>
+      <c r="D16" s="13" t="s">
         <v>279</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -2697,10 +2696,10 @@
         <v>198</v>
       </c>
       <c r="C17" s="13" t="s">
+        <v>280</v>
+      </c>
+      <c r="D17" s="13" t="s">
         <v>281</v>
-      </c>
-      <c r="D17" s="13" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -2708,10 +2707,10 @@
         <v>198</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -3311,9 +3310,7 @@
   <sheetPr codeName="Sheet16"/>
   <dimension ref="A1:S30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
@@ -6753,9 +6750,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:H4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
